--- a/data_analyst_recommendations.xlsx
+++ b/data_analyst_recommendations.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3996f9647f4b6a68/Master/Studienarbeit/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3996f9647f4b6a68/Master/Studienarbeit/Daten/NLP-Analyst-Recommendation-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4E51F8815D452E0F62355476585DCE3A8745231C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489CD47C-E168-489A-B1DA-A9F91C4C07BF}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4E51F8815D452E0F62355476585DCE3A8745231C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E08E2CC-46D1-4F68-B5C0-F88DA537780C}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1597,7 +1600,7 @@
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,6 +3682,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data_analyst_recommendations.xlsx
+++ b/data_analyst_recommendations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_4E51F8815D452E0F62355476585DCE3A8745231C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E08E2CC-46D1-4F68-B5C0-F88DA537780C}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1310,6 +1310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
